--- a/biology/Biochimie/Entrez/Entrez.xlsx
+++ b/biology/Biochimie/Entrez/Entrez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système global de recherches inter-bases de données Entrez (en anglais Entrez Global Query Cross-Database Search System) permet d'accéder à des bases de données du site internet du National Center for Biotechnology Information (NCBI). Le NCBI fait partie de la National Library of Medicine (NLM), qui est elle-même un département des National Institutes of Health (NIH) du gouvernement des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portion de texte anglais à traduire en français
@@ -553,7 +567,9 @@
           <t>Bases de données</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Entrez permet de faire une recherche globale ou filtrée dans les bases de données suivantes :
 All Databases : recherche dans toutes les bases de données ci-dessous
@@ -623,7 +639,9 @@
           <t>Genbank</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portion de texte anglais à traduire en français
@@ -660,7 +678,9 @@
           <t>Catalogue NLM</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portion de texte anglais à traduire en français
